--- a/Vorlage_wiss_Output_TRose_2025_draft.xlsx
+++ b/Vorlage_wiss_Output_TRose_2025_draft.xlsx
@@ -1,63 +1,301 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tobiasr/Documents/GitHub/troselab/troselab-webpage/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{405C1FF8-3B5D-1944-890C-80074A913A0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5770" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-240" yWindow="780" windowWidth="36000" windowHeight="22600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Wiss. Publikationen" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Wiss. Vorträge" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Datensätze" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Drittmittelprojekte" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Qualifizierungsarbeiten" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Wiss. Publikationen" sheetId="1" r:id="rId1"/>
+    <sheet name="Wiss. Vorträge" sheetId="2" r:id="rId2"/>
+    <sheet name="Datensätze" sheetId="3" r:id="rId3"/>
+    <sheet name="Drittmittelprojekte" sheetId="4" r:id="rId4"/>
+    <sheet name="Qualifizierungsarbeiten" sheetId="5" r:id="rId5"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="76">
+  <si>
+    <t>Qualifizierungsarbeiten</t>
+  </si>
+  <si>
+    <t>Lfd. Nr.</t>
+  </si>
+  <si>
+    <t>Autor/in</t>
+  </si>
+  <si>
+    <t>Titel</t>
+  </si>
+  <si>
+    <t>Art der Arbeit (Drop-Down)</t>
+  </si>
+  <si>
+    <t>Abgeschlossen? (Drop-Down)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ggf. Kommentare / Erläuterungen </t>
+  </si>
+  <si>
+    <t>Hoogers, Kevin</t>
+  </si>
+  <si>
+    <t>Uncertainty-modulated prediction error in mouse primary visual cortex</t>
+  </si>
+  <si>
+    <t>Masterarbeit</t>
+  </si>
+  <si>
+    <t>abgeschlossen</t>
+  </si>
+  <si>
+    <t>Universiteit van Amsterdam, MSc Biomedical Sciences (Track: Physiology of Synapses and Networks), Research Project, Student-Nr. 12527335, 42 ECTS, Februar 2025-August 2025, Abschluss: November 2025.</t>
+  </si>
+  <si>
+    <t>Wissenschaftliche Publikationen</t>
+  </si>
+  <si>
+    <t>Autor(en)</t>
+  </si>
+  <si>
+    <t>ggf. Zeitschriftenname und Nr.</t>
+  </si>
+  <si>
+    <t>ggf. Sammelband</t>
+  </si>
+  <si>
+    <t>ggf. Herausgeber</t>
+  </si>
+  <si>
+    <t>Erscheinungsjahr</t>
+  </si>
+  <si>
+    <t>ggf. Seitenzahl</t>
+  </si>
+  <si>
+    <t>Open Access? (Drop-Down)</t>
+  </si>
+  <si>
+    <t>Link / DOI</t>
+  </si>
+  <si>
+    <t>Steffen Katzner; Tobias Rose; Tatjana Tchumatchenko; Laura Busse</t>
+  </si>
+  <si>
+    <t>The Role of Layer 6 Corticothalamic Circuits in Vision: Plasticity, Sensory Processing, and Behavior</t>
+  </si>
+  <si>
+    <t>Annual Review of Vision Science</t>
+  </si>
+  <si>
+    <t>Ja</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1146/annurev-vision-101322-012348</t>
+  </si>
+  <si>
+    <t>Wissenschaftliche Vorträge</t>
+  </si>
+  <si>
+    <t>Titel des Vortrags</t>
+  </si>
+  <si>
+    <t>Name der Konferenz</t>
+  </si>
+  <si>
+    <t>Ort</t>
+  </si>
+  <si>
+    <t>Datum</t>
+  </si>
+  <si>
+    <t>Tobias Rose</t>
+  </si>
+  <si>
+    <t>Presentation of our work on subcortical sensory circuits and visual processing</t>
+  </si>
+  <si>
+    <t>EMBO Workshop: Subcortical sensory circuits: From perception to behavior</t>
+  </si>
+  <si>
+    <t>Assisi, Italy</t>
+  </si>
+  <si>
+    <t>11-14 February 2025</t>
+  </si>
+  <si>
+    <t>Contribution to SPP2411 Sensing LOOPS retreat discussions on sensory circuits and behavior</t>
+  </si>
+  <si>
+    <t>Sensing LOOPS! SPP2411 Retreat in Potsdam</t>
+  </si>
+  <si>
+    <t>Potsdam, Germany</t>
+  </si>
+  <si>
+    <t>March 2025</t>
+  </si>
+  <si>
+    <t>Invited keynote lecture on high-dimensional population activity: data acquisition and analysis</t>
+  </si>
+  <si>
+    <t>Bernstein Center Freiburg Annual Retreat</t>
+  </si>
+  <si>
+    <t>Kloster Lichtenthal, Baden-Baden, Germany</t>
+  </si>
+  <si>
+    <t>8-10 October</t>
+  </si>
+  <si>
+    <t>Participation and teaching contributions at TENSS Summer School 2025</t>
+  </si>
+  <si>
+    <t>TENSS Summer School 2025</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Summer 2025</t>
+  </si>
+  <si>
+    <t>Participation in CAJAL Course on Interacting with Neural Circuits (on-site course activities and exchange)</t>
+  </si>
+  <si>
+    <t>CAJAL Course on Interacting with Neural Circuits</t>
+  </si>
+  <si>
+    <t>Champalimaud Centre for the Unknown, Lisbon, Portugal</t>
+  </si>
+  <si>
+    <t>8-27 June 2025</t>
+  </si>
+  <si>
+    <t>In Repositorien hinterlegte Datensätze</t>
+  </si>
+  <si>
+    <t>Datensatz</t>
+  </si>
+  <si>
+    <t>Forschungsgegenstand</t>
+  </si>
+  <si>
+    <t>Name des Repositoriums</t>
+  </si>
+  <si>
+    <t>DOI, URN, o.ä.</t>
+  </si>
+  <si>
+    <t>Jahr</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>No new repository dataset was logged in the 2025 records for this reporting round.</t>
+  </si>
+  <si>
+    <t>Can be updated if additional dataset DOIs are available.</t>
+  </si>
+  <si>
+    <t>Beantragte und bewilligte Drittmittelprojekte</t>
+  </si>
+  <si>
+    <t>Projekttitel</t>
+  </si>
+  <si>
+    <t>ggf. Projektpartner</t>
+  </si>
+  <si>
+    <t>(geplanter) Projektbeginn</t>
+  </si>
+  <si>
+    <t>Förderinstitution</t>
+  </si>
+  <si>
+    <t>Fördersumme</t>
+  </si>
+  <si>
+    <t>Projektart (Drop-Down)</t>
+  </si>
+  <si>
+    <t>Projektstatus (Drop-Down)</t>
+  </si>
+  <si>
+    <t>HFSP Long-Term Fellowship (Yoshiki Hatashita; LT0042/2025-L)</t>
+  </si>
+  <si>
+    <t>HFSP; host lab: Tobias Rose</t>
+  </si>
+  <si>
+    <t>2025</t>
+  </si>
+  <si>
+    <t>Human Frontier Science Program (HFSP)</t>
+  </si>
+  <si>
+    <t>Andere (bitte Kommentar einfügen)</t>
+  </si>
+  <si>
+    <t>ausgewählt/bewilligt</t>
+  </si>
+  <si>
+    <t>Fellowship agreement completed in 2025.</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.5999938962981048"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.7999816888943144"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -119,26 +357,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -162,99 +380,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -554,620 +713,584 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="26.26953125" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="15.1796875" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="14.90625" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="15" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="12.7265625" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="23.81640625" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col min="4" max="4" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="5" t="inlineStr">
-        <is>
-          <t>Wissenschaftliche Publikationen</t>
-        </is>
-      </c>
-      <c r="B1" s="9" t="n"/>
-      <c r="C1" s="9" t="n"/>
-      <c r="D1" s="9" t="n"/>
-      <c r="E1" s="9" t="n"/>
-      <c r="F1" s="9" t="n"/>
-      <c r="G1" s="9" t="n"/>
-      <c r="H1" s="9" t="n"/>
-      <c r="I1" s="9" t="n"/>
-      <c r="J1" s="10" t="n"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>Lfd. Nr.</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>Autor(en)</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>Titel</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>ggf. Zeitschriftenname und Nr.</t>
-        </is>
-      </c>
-      <c r="E2" s="2" t="inlineStr">
-        <is>
-          <t>ggf. Sammelband</t>
-        </is>
-      </c>
-      <c r="F2" s="2" t="inlineStr">
-        <is>
-          <t>ggf. Herausgeber</t>
-        </is>
-      </c>
-      <c r="G2" s="2" t="inlineStr">
-        <is>
-          <t>Erscheinungsjahr</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="inlineStr">
-        <is>
-          <t>ggf. Seitenzahl</t>
-        </is>
-      </c>
-      <c r="I2" s="2" t="inlineStr">
-        <is>
-          <t>Open Access? (Drop-Down)</t>
-        </is>
-      </c>
-      <c r="J2" s="2" t="inlineStr">
-        <is>
-          <t>Link / DOI</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="6"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Steffen Katzner; Tobias Rose; Tatjana Tchumatchenko; Laura Busse</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>The Role of Layer 6 Corticothalamic Circuits in Vision: Plasticity, Sensory Processing, and Behavior</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Annual Review of Vision Science</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3">
         <v>2025</v>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Ja</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1146/annurev-vision-101322-012348</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="I3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>2</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>3</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>4</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7">
         <v>5</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8">
         <v>6</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9">
         <v>7</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>8</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>9</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="n">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12">
         <v>10</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="n">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13">
         <v>11</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="n">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14">
         <v>12</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="n">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15">
         <v>13</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="n">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16">
         <v>14</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="n">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17">
         <v>15</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="n">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18">
         <v>16</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="n">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19">
         <v>17</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="n">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20">
         <v>18</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="n">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21">
         <v>19</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22">
         <v>20</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="n">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23">
         <v>21</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="n">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24">
         <v>22</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="n">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25">
         <v>23</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="n">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26">
         <v>24</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="n">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27">
         <v>25</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="n">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28">
         <v>26</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="n">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29">
         <v>27</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="n">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30">
         <v>28</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="n">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31">
         <v>29</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="n">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32">
         <v>30</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="n">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33">
         <v>31</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="n">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34">
         <v>32</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="n">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35">
         <v>33</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="n">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36">
         <v>34</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="n">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37">
         <v>35</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="n">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38">
         <v>36</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="n">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39">
         <v>37</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="n">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40">
         <v>38</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="n">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41">
         <v>39</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="n">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42">
         <v>40</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="n">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43">
         <v>41</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="n">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44">
         <v>42</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="n">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45">
         <v>43</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="n">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46">
         <v>44</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="n">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47">
         <v>45</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="n">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48">
         <v>46</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="n">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49">
         <v>47</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="n">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50">
         <v>48</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="n">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51">
         <v>49</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="n">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52">
         <v>50</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="n">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53">
         <v>51</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="n">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54">
         <v>52</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="n">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55">
         <v>53</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="n">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56">
         <v>54</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="n">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57">
         <v>55</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="n">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58">
         <v>56</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" t="n">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59">
         <v>57</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" t="n">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60">
         <v>58</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" t="n">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61">
         <v>59</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" t="n">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62">
         <v>60</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" t="n">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63">
         <v>61</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" t="n">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64">
         <v>62</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" t="n">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65">
         <v>63</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" t="n">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66">
         <v>64</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" t="n">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67">
         <v>65</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" t="n">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68">
         <v>66</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" t="n">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69">
         <v>67</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" t="n">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70">
         <v>68</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" t="n">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71">
         <v>69</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" t="n">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72">
         <v>70</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" t="n">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73">
         <v>71</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" t="n">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74">
         <v>72</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" t="n">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75">
         <v>73</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" t="n">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76">
         <v>74</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" t="n">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77">
         <v>75</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" t="n">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78">
         <v>76</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" t="n">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79">
         <v>77</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" t="n">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80">
         <v>78</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" t="n">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81">
         <v>79</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" t="n">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82">
         <v>80</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" t="n">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83">
         <v>81</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" t="n">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84">
         <v>82</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" t="n">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85">
         <v>83</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" t="n">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86">
         <v>84</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" t="n">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87">
         <v>85</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" t="n">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88">
         <v>86</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" t="n">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89">
         <v>87</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" t="n">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90">
         <v>88</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" t="n">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91">
         <v>89</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" t="n">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92">
         <v>90</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" t="n">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93">
         <v>91</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" t="n">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94">
         <v>92</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" t="n">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95">
         <v>93</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" t="n">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96">
         <v>94</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" t="n">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97">
         <v>95</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" t="n">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98">
         <v>96</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" t="n">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99">
         <v>97</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" t="n">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100">
         <v>98</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" t="n">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101">
         <v>99</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" t="n">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A102">
         <v>100</v>
       </c>
     </row>
@@ -1176,697 +1299,634 @@
     <mergeCell ref="A1:J1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation sqref="I3:I130" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I130" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Ja, Nein"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.787401575" bottom="0.787401575" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A103" sqref="A103"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="9" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="15.453125" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="18.08984375" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="21.36328125" customWidth="1" min="5" max="5"/>
-    <col width="17.26953125" customWidth="1" min="6" max="6"/>
+    <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="81.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="59.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="7" t="inlineStr">
-        <is>
-          <t>Wissenschaftliche Vorträge</t>
-        </is>
-      </c>
-      <c r="F1" s="11" t="n"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>Lfd. Nr.</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>Autor(en)</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>Titel des Vortrags</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>Name der Konferenz</t>
-        </is>
-      </c>
-      <c r="E2" s="2" t="inlineStr">
-        <is>
-          <t>Ort</t>
-        </is>
-      </c>
-      <c r="F2" s="2" t="inlineStr">
-        <is>
-          <t>Datum</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="10"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Tobias Rose</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Presentation of our work on subcortical sensory circuits and visual processing</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>EMBO Workshop: Subcortical sensory circuits: From perception to behavior</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Assisi, Italy</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>11-14 February 2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Tobias Rose</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Contribution to SPP2411 Sensing LOOPS retreat discussions on sensory circuits and behavior</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Sensing LOOPS! SPP2411 Retreat in Potsdam</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Potsdam, Germany</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>March 2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Tobias Rose</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Invited keynote lecture on high-dimensional population activity: data acquisition and analysis</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Bernstein Center Freiburg Annual Retreat</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Kloster Lichtenthal, Baden-Baden, Germany</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>8-10 October</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Tobias Rose</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Participation and teaching contributions at TENSS Summer School 2025</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>TENSS Summer School 2025</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Romania</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Summer 2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Tobias Rose</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Participation in CAJAL Course on Interacting with Neural Circuits (on-site course activities and exchange)</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>CAJAL Course on Interacting with Neural Circuits</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Champalimaud Centre for the Unknown, Lisbon, Portugal</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>8-27 June 2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
         <v>6</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
         <v>7</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>8</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>9</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="n">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12">
         <v>10</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="n">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13">
         <v>11</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="n">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14">
         <v>12</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="n">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15">
         <v>13</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="n">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16">
         <v>14</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="n">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17">
         <v>15</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="n">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18">
         <v>16</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="n">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19">
         <v>17</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="n">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20">
         <v>18</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="n">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21">
         <v>19</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22">
         <v>20</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="n">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23">
         <v>21</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="n">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24">
         <v>22</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="n">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25">
         <v>23</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="n">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26">
         <v>24</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="n">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27">
         <v>25</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="n">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28">
         <v>26</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="n">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29">
         <v>27</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="n">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30">
         <v>28</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="n">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31">
         <v>29</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="n">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32">
         <v>30</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="n">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33">
         <v>31</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="n">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34">
         <v>32</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="n">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35">
         <v>33</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="n">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36">
         <v>34</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="n">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37">
         <v>35</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="n">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38">
         <v>36</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="n">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39">
         <v>37</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="n">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40">
         <v>38</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="n">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41">
         <v>39</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="n">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42">
         <v>40</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="n">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43">
         <v>41</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="n">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44">
         <v>42</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="n">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45">
         <v>43</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="n">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46">
         <v>44</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="n">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47">
         <v>45</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="n">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48">
         <v>46</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="n">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49">
         <v>47</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="n">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50">
         <v>48</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="n">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51">
         <v>49</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="n">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52">
         <v>50</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="n">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53">
         <v>51</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="n">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54">
         <v>52</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="n">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55">
         <v>53</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="n">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56">
         <v>54</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="n">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57">
         <v>55</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="n">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58">
         <v>56</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" t="n">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59">
         <v>57</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" t="n">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60">
         <v>58</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" t="n">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61">
         <v>59</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" t="n">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62">
         <v>60</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" t="n">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63">
         <v>61</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" t="n">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64">
         <v>62</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" t="n">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65">
         <v>63</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" t="n">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66">
         <v>64</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" t="n">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67">
         <v>65</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" t="n">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68">
         <v>66</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" t="n">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69">
         <v>67</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" t="n">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70">
         <v>68</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" t="n">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71">
         <v>69</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" t="n">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72">
         <v>70</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" t="n">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73">
         <v>71</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" t="n">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74">
         <v>72</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" t="n">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75">
         <v>73</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" t="n">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76">
         <v>74</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" t="n">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77">
         <v>75</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" t="n">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78">
         <v>76</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" t="n">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79">
         <v>77</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" t="n">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80">
         <v>78</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" t="n">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81">
         <v>79</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" t="n">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82">
         <v>80</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" t="n">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83">
         <v>81</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" t="n">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84">
         <v>82</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" t="n">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85">
         <v>83</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" t="n">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86">
         <v>84</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" t="n">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87">
         <v>85</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" t="n">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88">
         <v>86</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" t="n">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89">
         <v>87</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" t="n">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90">
         <v>88</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" t="n">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91">
         <v>89</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" t="n">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92">
         <v>90</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" t="n">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93">
         <v>91</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" t="n">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94">
         <v>92</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" t="n">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95">
         <v>93</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" t="n">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96">
         <v>94</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" t="n">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97">
         <v>95</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" t="n">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98">
         <v>96</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" t="n">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99">
         <v>97</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" t="n">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100">
         <v>98</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" t="n">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101">
         <v>99</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" t="n">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A102">
         <v>100</v>
       </c>
     </row>
@@ -1874,610 +1934,583 @@
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.787401575" bottom="0.787401575" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="33" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="19.81640625" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="21.7265625" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="12.6328125" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="30" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col min="2" max="2" width="33" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="6" t="inlineStr">
-        <is>
-          <t>In Repositorien hinterlegte Datensätze</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>Lfd. Nr.</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>Autor(en)</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>Datensatz</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>Forschungsgegenstand</t>
-        </is>
-      </c>
-      <c r="E2" s="2" t="inlineStr">
-        <is>
-          <t>Name des Repositoriums</t>
-        </is>
-      </c>
-      <c r="F2" s="2" t="inlineStr">
-        <is>
-          <t>DOI, URN, o.ä.</t>
-        </is>
-      </c>
-      <c r="G2" s="2" t="inlineStr">
-        <is>
-          <t>Jahr</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ggf. Kommentare / Erläuterungen </t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>n/a</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>No new repository dataset was logged in the 2025 records for this reporting round.</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>n/a</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>n/a</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>n/a</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3">
         <v>2025</v>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Can be updated if additional dataset DOIs are available.</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="H3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>2</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>3</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>4</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7">
         <v>5</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8">
         <v>6</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9">
         <v>7</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>8</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>9</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="n">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12">
         <v>10</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="n">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13">
         <v>11</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="n">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14">
         <v>12</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="n">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15">
         <v>13</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="n">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16">
         <v>14</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="n">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17">
         <v>15</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="n">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18">
         <v>16</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="n">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19">
         <v>17</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="n">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20">
         <v>18</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="n">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21">
         <v>19</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22">
         <v>20</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="n">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23">
         <v>21</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="n">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24">
         <v>22</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="n">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25">
         <v>23</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="n">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26">
         <v>24</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="n">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27">
         <v>25</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="n">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28">
         <v>26</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="n">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29">
         <v>27</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="n">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30">
         <v>28</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="n">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31">
         <v>29</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="n">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32">
         <v>30</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="n">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33">
         <v>31</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="n">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34">
         <v>32</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="n">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35">
         <v>33</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="n">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36">
         <v>34</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="n">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37">
         <v>35</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="n">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38">
         <v>36</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="n">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39">
         <v>37</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="n">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40">
         <v>38</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="n">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41">
         <v>39</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="n">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42">
         <v>40</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="n">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43">
         <v>41</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="n">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44">
         <v>42</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="n">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45">
         <v>43</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="n">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46">
         <v>44</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="n">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47">
         <v>45</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="n">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48">
         <v>46</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="n">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49">
         <v>47</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="n">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50">
         <v>48</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="n">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51">
         <v>49</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="n">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52">
         <v>50</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="n">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53">
         <v>51</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="n">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54">
         <v>52</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="n">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55">
         <v>53</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="n">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56">
         <v>54</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="n">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57">
         <v>55</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="n">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58">
         <v>56</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" t="n">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59">
         <v>57</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" t="n">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60">
         <v>58</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" t="n">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61">
         <v>59</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" t="n">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62">
         <v>60</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" t="n">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63">
         <v>61</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" t="n">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64">
         <v>62</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" t="n">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65">
         <v>63</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" t="n">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66">
         <v>64</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" t="n">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67">
         <v>65</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" t="n">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68">
         <v>66</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" t="n">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69">
         <v>67</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" t="n">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70">
         <v>68</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" t="n">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71">
         <v>69</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" t="n">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72">
         <v>70</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" t="n">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73">
         <v>71</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" t="n">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74">
         <v>72</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" t="n">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75">
         <v>73</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" t="n">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76">
         <v>74</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" t="n">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77">
         <v>75</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" t="n">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78">
         <v>76</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" t="n">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79">
         <v>77</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" t="n">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80">
         <v>78</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" t="n">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81">
         <v>79</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" t="n">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82">
         <v>80</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" t="n">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83">
         <v>81</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" t="n">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84">
         <v>82</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" t="n">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85">
         <v>83</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" t="n">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86">
         <v>84</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" t="n">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87">
         <v>85</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" t="n">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88">
         <v>86</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" t="n">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89">
         <v>87</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" t="n">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90">
         <v>88</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" t="n">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91">
         <v>89</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" t="n">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92">
         <v>90</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" t="n">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93">
         <v>91</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" t="n">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94">
         <v>92</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" t="n">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95">
         <v>93</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" t="n">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96">
         <v>94</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" t="n">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97">
         <v>95</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" t="n">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98">
         <v>96</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" t="n">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99">
         <v>97</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" t="n">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100">
         <v>98</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" t="n">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101">
         <v>99</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" t="n">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A102">
         <v>100</v>
       </c>
     </row>
@@ -2485,691 +2518,580 @@
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.787401575" bottom="0.787401575" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I102"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:I100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="16.453125" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="22.08984375" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="14.81640625" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="12.54296875" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="21.08984375" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23.81640625" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="30" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="6" t="inlineStr">
-        <is>
-          <t>Beantragte und bewilligte Drittmittelprojekte</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>Lfd. Nr.</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>Projekttitel</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>ggf. Projektpartner</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>(geplanter) Projektbeginn</t>
-        </is>
-      </c>
-      <c r="E2" s="2" t="inlineStr">
-        <is>
-          <t>Förderinstitution</t>
-        </is>
-      </c>
-      <c r="F2" s="2" t="inlineStr">
-        <is>
-          <t>Fördersumme</t>
-        </is>
-      </c>
-      <c r="G2" s="2" t="inlineStr">
-        <is>
-          <t>Projektart (Drop-Down)</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="inlineStr">
-        <is>
-          <t>Projektstatus (Drop-Down)</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ggf. Kommentare / Erläuterungen </t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>iBehave consortium / NRW research network</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Interdisciplinary consortium (network-wide collaboration)</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Land NRW (NRW Research Networks)</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Projektförderung</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>laufend</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Ongoing network project with continuing scientific activities in 2025.</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="B2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>HFSP Long-Term Fellowship (Yoshiki Hatashita; LT0042/2025-L)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>HFSP; host lab: Tobias Rose</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Human Frontier Science Program (HFSP)</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Andere (bitte Kommentar einfügen)</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>ausgewählt/bewilligt</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Fellowship agreement completed in 2025.</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Transition from tenure-track to permanent professorship</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>University of Bonn Medical Center</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>01.05.2025</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>University of Bonn / UKB</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Andere (bitte Kommentar einfügen)</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>abgeschlossen</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Career milestone in 2025: appointment transitioned from tenure-track to permanent professorship.</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>4</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7">
         <v>5</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8">
         <v>6</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9">
         <v>7</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>8</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>9</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="n">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12">
         <v>10</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="n">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13">
         <v>11</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="n">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14">
         <v>12</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="n">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15">
         <v>13</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="n">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16">
         <v>14</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="n">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17">
         <v>15</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="n">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18">
         <v>16</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="n">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19">
         <v>17</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="n">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20">
         <v>18</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="n">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21">
         <v>19</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22">
         <v>20</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="n">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23">
         <v>21</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="n">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24">
         <v>22</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="n">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25">
         <v>23</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="n">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26">
         <v>24</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="n">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27">
         <v>25</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="n">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28">
         <v>26</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="n">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29">
         <v>27</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="n">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30">
         <v>28</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="n">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31">
         <v>29</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="n">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32">
         <v>30</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="n">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33">
         <v>31</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="n">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34">
         <v>32</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="n">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35">
         <v>33</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="n">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36">
         <v>34</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="n">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37">
         <v>35</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="n">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38">
         <v>36</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="n">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39">
         <v>37</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="n">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40">
         <v>38</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="n">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41">
         <v>39</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="n">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42">
         <v>40</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="n">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43">
         <v>41</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="n">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44">
         <v>42</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="n">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45">
         <v>43</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="n">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46">
         <v>44</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="n">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47">
         <v>45</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="n">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48">
         <v>46</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="n">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49">
         <v>47</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="n">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50">
         <v>48</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="n">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51">
         <v>49</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="n">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52">
         <v>50</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="n">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53">
         <v>51</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="n">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54">
         <v>52</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="n">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55">
         <v>53</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="n">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56">
         <v>54</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="n">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57">
         <v>55</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="n">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58">
         <v>56</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" t="n">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59">
         <v>57</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" t="n">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60">
         <v>58</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" t="n">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61">
         <v>59</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" t="n">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62">
         <v>60</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" t="n">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63">
         <v>61</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" t="n">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64">
         <v>62</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" t="n">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65">
         <v>63</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" t="n">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66">
         <v>64</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" t="n">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67">
         <v>65</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" t="n">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68">
         <v>66</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" t="n">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69">
         <v>67</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" t="n">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70">
         <v>68</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" t="n">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71">
         <v>69</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" t="n">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72">
         <v>70</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" t="n">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73">
         <v>71</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" t="n">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74">
         <v>72</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" t="n">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75">
         <v>73</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" t="n">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76">
         <v>74</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" t="n">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77">
         <v>75</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" t="n">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78">
         <v>76</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" t="n">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79">
         <v>77</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" t="n">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80">
         <v>78</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" t="n">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81">
         <v>79</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" t="n">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82">
         <v>80</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" t="n">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83">
         <v>81</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" t="n">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84">
         <v>82</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" t="n">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85">
         <v>83</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" t="n">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86">
         <v>84</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" t="n">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87">
         <v>85</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" t="n">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88">
         <v>86</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" t="n">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89">
         <v>87</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" t="n">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90">
         <v>88</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" t="n">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91">
         <v>89</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" t="n">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92">
         <v>90</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" t="n">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93">
         <v>91</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" t="n">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94">
         <v>92</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" t="n">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95">
         <v>93</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" t="n">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96">
         <v>94</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" t="n">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97">
         <v>95</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" t="n">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98">
         <v>96</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" t="n">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99">
         <v>97</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" t="n">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100">
         <v>98</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="n">
-        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -3177,608 +3099,580 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation sqref="H103:H117" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H101:H115" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"Beantragt, Bewilligt"</formula1>
     </dataValidation>
-    <dataValidation sqref="G103:G119" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G101:G117" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>"Projektförderung, Graduiertenkolleg, Forschungsgruppe, Sonderforschungsbereich, Forschungszentrum, Exzellenzcluster, Schwerpunktprogramm"</formula1>
     </dataValidation>
-    <dataValidation sqref="H3:H102" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H100" xr:uid="{00000000-0002-0000-0300-000002000000}">
       <formula1>"beantragt, ausgewählt/bewilligt, laufend, abgeschlossen"</formula1>
     </dataValidation>
-    <dataValidation sqref="G3:G102" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G100" xr:uid="{00000000-0002-0000-0300-000003000000}">
       <formula1>"Projektförderung, Graduiertenkolleg, Forschungsgruppe, Sonderforschungsbereich, Forschungszentrum, Exzellenzcluster, Schwerpunktprogramm, Andere (bitte Kommentar einfügen)"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.787401575" bottom="0.787401575" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="24" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="25.54296875" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="30.90625" customWidth="1" min="6" max="6"/>
+    <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="8" t="inlineStr">
-        <is>
-          <t>Qualifizierungsarbeiten</t>
-        </is>
-      </c>
-      <c r="B1" s="9" t="n"/>
-      <c r="C1" s="9" t="n"/>
-      <c r="D1" s="9" t="n"/>
-      <c r="E1" s="9" t="n"/>
-      <c r="F1" s="10" t="n"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="4" t="inlineStr">
-        <is>
-          <t>Lfd. Nr.</t>
-        </is>
-      </c>
-      <c r="B2" s="4" t="inlineStr">
-        <is>
-          <t>Autor/in</t>
-        </is>
-      </c>
-      <c r="C2" s="4" t="inlineStr">
-        <is>
-          <t>Titel</t>
-        </is>
-      </c>
-      <c r="D2" s="4" t="inlineStr">
-        <is>
-          <t>Art der Arbeit (Drop-Down)</t>
-        </is>
-      </c>
-      <c r="E2" s="4" t="inlineStr">
-        <is>
-          <t>Abgeschlossen? (Drop-Down)</t>
-        </is>
-      </c>
-      <c r="F2" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ggf. Kommentare / Erläuterungen </t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="6"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>n/a</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>No completed qualification thesis was logged for 2025 in the current records.</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Andere (bitte Kommentar einfügen)</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>geplant</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Can be updated if degree completions should be reported for 2025.</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+      <c r="D3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
+      <c r="E3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
+      <c r="F3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="n">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14">
         <v>12</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="n">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15">
         <v>13</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="n">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16">
         <v>14</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="n">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17">
         <v>15</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="n">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18">
         <v>16</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="n">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19">
         <v>17</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="n">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20">
         <v>18</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="n">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21">
         <v>19</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22">
         <v>20</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="n">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23">
         <v>21</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="n">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24">
         <v>22</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="n">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25">
         <v>23</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="n">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26">
         <v>24</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="n">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27">
         <v>25</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="n">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28">
         <v>26</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="n">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29">
         <v>27</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="n">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30">
         <v>28</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="n">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31">
         <v>29</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="n">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32">
         <v>30</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="n">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33">
         <v>31</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="n">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34">
         <v>32</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="n">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35">
         <v>33</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="n">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36">
         <v>34</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="n">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37">
         <v>35</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="n">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38">
         <v>36</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="n">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39">
         <v>37</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="n">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40">
         <v>38</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="n">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41">
         <v>39</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="n">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42">
         <v>40</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="n">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43">
         <v>41</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="n">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44">
         <v>42</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="n">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45">
         <v>43</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="n">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46">
         <v>44</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="n">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47">
         <v>45</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="n">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48">
         <v>46</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="n">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49">
         <v>47</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="n">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50">
         <v>48</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="n">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51">
         <v>49</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="n">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52">
         <v>50</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="n">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53">
         <v>51</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="n">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54">
         <v>52</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="n">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55">
         <v>53</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="n">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56">
         <v>54</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="n">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57">
         <v>55</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="n">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58">
         <v>56</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" t="n">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59">
         <v>57</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" t="n">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60">
         <v>58</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" t="n">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61">
         <v>59</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" t="n">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62">
         <v>60</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" t="n">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63">
         <v>61</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" t="n">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64">
         <v>62</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" t="n">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65">
         <v>63</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" t="n">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66">
         <v>64</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" t="n">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67">
         <v>65</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" t="n">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68">
         <v>66</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" t="n">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69">
         <v>67</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" t="n">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70">
         <v>68</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" t="n">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71">
         <v>69</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" t="n">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72">
         <v>70</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" t="n">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73">
         <v>71</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" t="n">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74">
         <v>72</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" t="n">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75">
         <v>73</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" t="n">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76">
         <v>74</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" t="n">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77">
         <v>75</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" t="n">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78">
         <v>76</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" t="n">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79">
         <v>77</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" t="n">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80">
         <v>78</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" t="n">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81">
         <v>79</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" t="n">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82">
         <v>80</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" t="n">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83">
         <v>81</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" t="n">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84">
         <v>82</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" t="n">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85">
         <v>83</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" t="n">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86">
         <v>84</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" t="n">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87">
         <v>85</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" t="n">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88">
         <v>86</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" t="n">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89">
         <v>87</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" t="n">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90">
         <v>88</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" t="n">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91">
         <v>89</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" t="n">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92">
         <v>90</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" t="n">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93">
         <v>91</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" t="n">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94">
         <v>92</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" t="n">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95">
         <v>93</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" t="n">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96">
         <v>94</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" t="n">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97">
         <v>95</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" t="n">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98">
         <v>96</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" t="n">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99">
         <v>97</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" t="n">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100">
         <v>98</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" t="n">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101">
         <v>99</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" t="n">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A102">
         <v>100</v>
       </c>
     </row>
@@ -3787,16 +3681,16 @@
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation sqref="D3:D102" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D102" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>"Habil, Dissertation, Masterarbeit, Bachelorarbeit, Andere (bitte Kommentar einfügen)"</formula1>
     </dataValidation>
-    <dataValidation sqref="E4:E102" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E102" xr:uid="{00000000-0002-0000-0400-000001000000}">
       <formula1>"geplant, in Barbeitung, abgeschlossen"</formula1>
     </dataValidation>
-    <dataValidation sqref="E3" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3" xr:uid="{00000000-0002-0000-0400-000002000000}">
       <formula1>"geplant, in Bearbeitung, abgeschlossen"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.787401575" bottom="0.787401575" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>